--- a/biology/Médecine/Lennart_Nilsson/Lennart_Nilsson.xlsx
+++ b/biology/Médecine/Lennart_Nilsson/Lennart_Nilsson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lars Olof Lennart Nilsson (né le 24 août 1922 à Strängnäs et mort le 28 janvier 2017 à Stockholm) est un photographe suédois, pionnier de la photographie médicale.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lennart Nilsson meurt le 28 janvier 2017 à l'âge de 94 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lennart Nilsson meurt le 28 janvier 2017 à l'âge de 94 ans.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1998, le prix Lennart-Nilsson est décerné tous les ans à l'Institut Karolinska.
 </t>
@@ -573,7 +589,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1974, médaille du Prince Eugène
@@ -582,7 +600,7 @@
 1983, Emmy Awards
 1992, prix Maître de la photographie (Infinity Awards)
 1993, prix culturel de la Société allemande de photographie
-1993, médaille du progrès de la Royal Photographic Society[2].
+1993, médaille du progrès de la Royal Photographic Society.
 1996, Emmy Awards
 1996, World Press Photo dans la catégorie Science &amp; Technology stories
 </t>
@@ -613,7 +631,9 @@
           <t>Collections, expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1977 : Rencontres internationales de la photographie d'Arles, Arles
 2010 : Fotografiska, Stockholm</t>
@@ -646,10 +666,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Traductions françaises
-Naître, Paris, Hachette Littérature, 1990.
-Être, Paris, La Martinière, 2006.
-Publications originales
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Naître, Paris, Hachette Littérature, 1990.
+Être, Paris, La Martinière, 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lennart_Nilsson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lennart_Nilsson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications originales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 (en) Sweden in Profile, Svenska institutet/Medéns, 1954.
 (en) Reportage, Albert Bonniers Förlag, 1955.
 (sv) Myror, Forum, 1959.
